--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="267">
   <si>
     <t>Term</t>
   </si>
@@ -138,6 +138,51 @@
     <t>The exercising of an active right</t>
   </si>
   <si>
+    <t>RightExerciseService</t>
+  </si>
+  <si>
+    <t>Right Exercise Service</t>
+  </si>
+  <si>
+    <t>A Service providing or implementing the exercising of right(s)</t>
+  </si>
+  <si>
+    <t>RightExerciseRecord</t>
+  </si>
+  <si>
+    <t>Right Exercise Record</t>
+  </si>
+  <si>
+    <t>Record of a Right being exercised</t>
+  </si>
+  <si>
+    <t>dpv:Record</t>
+  </si>
+  <si>
+    <t>RightExemption</t>
+  </si>
+  <si>
+    <t>RightExerciseStatus</t>
+  </si>
+  <si>
+    <t>Right Exercise Status</t>
+  </si>
+  <si>
+    <t>Status of a Right being exercised</t>
+  </si>
+  <si>
+    <t>dpv:Status</t>
+  </si>
+  <si>
+    <t>RightPartiallyFulfilled</t>
+  </si>
+  <si>
+    <t>RightFulfilled</t>
+  </si>
+  <si>
+    <t>RightNotFulfilled</t>
+  </si>
+  <si>
     <t>domain</t>
   </si>
   <si>
@@ -174,7 +219,10 @@
     <t>dpv:ActiveRight</t>
   </si>
   <si>
-    <t>dpv:RightExercise</t>
+    <t>dpv:RightExerciseService</t>
+  </si>
+  <si>
+    <t>hasRightExemption</t>
   </si>
   <si>
     <t>Concepts in DPV this extends</t>
@@ -2370,62 +2418,26 @@
       <c r="AF3" s="13"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="A4" s="12"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="J4" s="15"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14"/>
-      <c r="M4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="13"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
-      <c r="AF4" s="13"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>26</v>
@@ -2437,9 +2449,9 @@
       <c r="G5" s="13"/>
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="15"/>
       <c r="K5" s="14"/>
-      <c r="L5" s="13"/>
+      <c r="L5" s="14"/>
       <c r="M5" s="12" t="s">
         <v>33</v>
       </c>
@@ -2467,27 +2479,27 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
-      <c r="J6" s="15"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
+      <c r="L6" s="13"/>
       <c r="M6" s="12" t="s">
         <v>33</v>
       </c>
@@ -2514,58 +2526,286 @@
       <c r="AF6" s="13"/>
     </row>
     <row r="7">
+      <c r="A7" s="12"/>
       <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
       <c r="J7" s="15"/>
       <c r="K7" s="14"/>
       <c r="L7" s="14"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
     </row>
     <row r="8">
-      <c r="B8" s="11"/>
+      <c r="A8" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="15"/>
       <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
+      <c r="AA8" s="13"/>
+      <c r="AB8" s="13"/>
+      <c r="AC8" s="13"/>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13"/>
+      <c r="AF8" s="13"/>
     </row>
     <row r="9">
-      <c r="B9" s="11"/>
+      <c r="A9" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
     </row>
     <row r="10">
+      <c r="A10" s="13"/>
       <c r="B10" s="11"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="14"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
     </row>
     <row r="11">
-      <c r="B11" s="11"/>
-      <c r="C11" s="16"/>
-      <c r="J11" s="17"/>
+      <c r="A11" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
       <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="O11" s="18"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
     </row>
     <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="11"/>
-      <c r="J12" s="19"/>
       <c r="K12" s="14"/>
     </row>
     <row r="13">
+      <c r="B13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="J13" s="17"/>
       <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="O13" s="18"/>
     </row>
     <row r="14">
-      <c r="B14" s="20"/>
-      <c r="I14" s="21"/>
+      <c r="A14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="19"/>
       <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="22"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13"/>
+      <c r="AC14" s="13"/>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13"/>
     </row>
     <row r="15">
-      <c r="B15" s="11"/>
-      <c r="J15" s="17"/>
+      <c r="A15" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="K15" s="14"/>
     </row>
     <row r="16">
-      <c r="B16" s="23"/>
+      <c r="A16" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="22"/>
     </row>
     <row r="17">
-      <c r="B17" s="23"/>
+      <c r="A17" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18">
       <c r="B18" s="23"/>
@@ -5165,28 +5405,34 @@
     <row r="883">
       <c r="B883" s="23"/>
     </row>
+    <row r="884">
+      <c r="B884" s="23"/>
+    </row>
+    <row r="885">
+      <c r="B885" s="23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:AF2 N4:N6">
+  <conditionalFormatting sqref="A2:AF2 N4:N11 N14">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$M2="modified"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF2 N4:N6">
+  <conditionalFormatting sqref="A2:AF2 N4:N11 N14">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>$M2="deprecated"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF835">
     <cfRule type="expression" dxfId="2" priority="3">
       <formula>$M2="accepted"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF835">
     <cfRule type="expression" dxfId="3" priority="4">
       <formula>$M2="proposed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:AF833">
+  <conditionalFormatting sqref="A2:AF835">
     <cfRule type="expression" dxfId="4" priority="5">
       <formula>$M2="modified"</formula>
     </cfRule>
@@ -5234,13 +5480,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>42</v>
+        <v>57</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5272,13 +5518,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -5287,7 +5533,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5301,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>22</v>
@@ -5322,22 +5568,22 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
@@ -5365,6 +5611,11 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="12" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6">
       <c r="C6" s="26"/>
@@ -8387,7 +8638,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="12"/>
@@ -8395,7 +8646,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>24</v>
@@ -8406,14 +8657,14 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -8423,7 +8674,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="31" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
       <c r="K5" s="14">
         <v>44734.0</v>
@@ -8433,10 +8684,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -8456,14 +8707,14 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
@@ -8473,7 +8724,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="31" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="K6" s="14">
         <v>44735.0</v>
@@ -8483,10 +8734,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -8506,14 +8757,14 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>18</v>
@@ -8523,7 +8774,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="31" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="K7" s="14">
         <v>44736.0</v>
@@ -8533,10 +8784,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -8556,14 +8807,14 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>18</v>
@@ -8573,7 +8824,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="31" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="K8" s="14">
         <v>44737.0</v>
@@ -8583,10 +8834,10 @@
         <v>20</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -8606,14 +8857,14 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>18</v>
@@ -8623,7 +8874,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="31" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="K9" s="14">
         <v>44738.0</v>
@@ -8633,10 +8884,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8656,14 +8907,14 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
@@ -8673,7 +8924,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="31" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
       <c r="K10" s="14">
         <v>44739.0</v>
@@ -8683,10 +8934,10 @@
         <v>20</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -8706,14 +8957,14 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>18</v>
@@ -8723,7 +8974,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="31" t="s">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="K11" s="14">
         <v>44740.0</v>
@@ -8733,10 +8984,10 @@
         <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -8756,14 +9007,14 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
@@ -8773,7 +9024,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="31" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="K12" s="14">
         <v>44741.0</v>
@@ -8783,10 +9034,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -8806,14 +9057,14 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>18</v>
@@ -8823,7 +9074,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="31" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="K13" s="14">
         <v>44742.0</v>
@@ -8833,10 +9084,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -8856,14 +9107,14 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>18</v>
@@ -8873,7 +9124,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="31" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="K14" s="14">
         <v>44743.0</v>
@@ -8883,10 +9134,10 @@
         <v>20</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -8906,14 +9157,14 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>18</v>
@@ -8923,7 +9174,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="31" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="K15" s="14">
         <v>44744.0</v>
@@ -8933,10 +9184,10 @@
         <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -8956,14 +9207,14 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>18</v>
@@ -8973,7 +9224,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="31" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="K16" s="14">
         <v>44745.0</v>
@@ -8983,10 +9234,10 @@
         <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -9006,14 +9257,14 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>18</v>
@@ -9023,7 +9274,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="31" t="s">
-        <v>98</v>
+        <v>114</v>
       </c>
       <c r="K17" s="14">
         <v>44746.0</v>
@@ -9033,10 +9284,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -9056,14 +9307,14 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>18</v>
@@ -9073,7 +9324,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="31" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="K18" s="14">
         <v>44747.0</v>
@@ -9083,10 +9334,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -9106,14 +9357,14 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>18</v>
@@ -9123,7 +9374,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="31" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="K19" s="14">
         <v>44748.0</v>
@@ -9133,10 +9384,10 @@
         <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -9156,14 +9407,14 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>18</v>
@@ -9173,7 +9424,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="31" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="K20" s="14">
         <v>44749.0</v>
@@ -9183,10 +9434,10 @@
         <v>20</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -9206,14 +9457,14 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>18</v>
@@ -9223,7 +9474,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="31" t="s">
-        <v>110</v>
+        <v>126</v>
       </c>
       <c r="K21" s="14">
         <v>44750.0</v>
@@ -9233,10 +9484,10 @@
         <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -9256,14 +9507,14 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>18</v>
@@ -9273,7 +9524,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="31" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="K22" s="14">
         <v>44751.0</v>
@@ -9283,10 +9534,10 @@
         <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -9306,14 +9557,14 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>18</v>
@@ -9323,7 +9574,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="31" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="K23" s="14">
         <v>44752.0</v>
@@ -9333,10 +9584,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -9356,14 +9607,14 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>18</v>
@@ -9373,7 +9624,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="31" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="K24" s="14">
         <v>44753.0</v>
@@ -9383,10 +9634,10 @@
         <v>20</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -9406,14 +9657,14 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>120</v>
+        <v>136</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>18</v>
@@ -9423,7 +9674,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="31" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="K25" s="14">
         <v>44754.0</v>
@@ -9433,10 +9684,10 @@
         <v>20</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -9456,14 +9707,14 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>18</v>
@@ -9473,7 +9724,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="31" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="K26" s="14">
         <v>44755.0</v>
@@ -9483,10 +9734,10 @@
         <v>20</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -9506,14 +9757,14 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>27</v>
@@ -9523,7 +9774,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="31" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="K27" s="14">
         <v>44756.0</v>
@@ -9533,10 +9784,10 @@
         <v>20</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -9556,14 +9807,14 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>18</v>
@@ -9573,7 +9824,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="31" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="K28" s="14">
         <v>44757.0</v>
@@ -9583,10 +9834,10 @@
         <v>20</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -9606,14 +9857,14 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>18</v>
@@ -9623,7 +9874,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="31" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="K29" s="14">
         <v>44758.0</v>
@@ -9633,10 +9884,10 @@
         <v>20</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -9656,14 +9907,14 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>136</v>
+        <v>152</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>18</v>
@@ -9673,7 +9924,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="31" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="K30" s="14">
         <v>44759.0</v>
@@ -9683,10 +9934,10 @@
         <v>20</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -9706,14 +9957,14 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>18</v>
@@ -9723,7 +9974,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="31" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="K31" s="14">
         <v>44760.0</v>
@@ -9733,10 +9984,10 @@
         <v>20</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -9756,14 +10007,14 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>18</v>
@@ -9773,7 +10024,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="31" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="K32" s="14">
         <v>44761.0</v>
@@ -9783,10 +10034,10 @@
         <v>20</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -9806,14 +10057,14 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>18</v>
@@ -9823,7 +10074,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="31" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="K33" s="14">
         <v>44762.0</v>
@@ -9833,10 +10084,10 @@
         <v>20</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -9856,14 +10107,14 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="12" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>18</v>
@@ -9873,7 +10124,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="31" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="K34" s="14">
         <v>44763.0</v>
@@ -9883,10 +10134,10 @@
         <v>20</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -9906,14 +10157,14 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>27</v>
@@ -9923,7 +10174,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="31" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="K35" s="14">
         <v>44764.0</v>
@@ -9933,10 +10184,10 @@
         <v>20</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
@@ -9956,14 +10207,14 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>18</v>
@@ -9973,7 +10224,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="31" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K36" s="14">
         <v>44765.0</v>
@@ -9983,10 +10234,10 @@
         <v>20</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -10006,14 +10257,14 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>18</v>
@@ -10023,7 +10274,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="31" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="K37" s="14">
         <v>44766.0</v>
@@ -10033,10 +10284,10 @@
         <v>20</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -10056,14 +10307,14 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>18</v>
@@ -10073,7 +10324,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="31" t="s">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="K38" s="14">
         <v>44767.0</v>
@@ -10083,10 +10334,10 @@
         <v>20</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -10106,14 +10357,14 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>18</v>
@@ -10123,7 +10374,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="31" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="K39" s="14">
         <v>44768.0</v>
@@ -10133,10 +10384,10 @@
         <v>20</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -10156,14 +10407,14 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>18</v>
@@ -10173,7 +10424,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="31" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="K40" s="14">
         <v>44769.0</v>
@@ -10183,10 +10434,10 @@
         <v>20</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -10206,14 +10457,14 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>18</v>
@@ -10223,7 +10474,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="31" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="K41" s="14">
         <v>44770.0</v>
@@ -10233,10 +10484,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -10256,14 +10507,14 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>174</v>
+        <v>190</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>18</v>
@@ -10273,7 +10524,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="31" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="K42" s="14">
         <v>44771.0</v>
@@ -10283,10 +10534,10 @@
         <v>20</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
@@ -10306,14 +10557,14 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -10323,7 +10574,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="31" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="K43" s="14">
         <v>44772.0</v>
@@ -10333,10 +10584,10 @@
         <v>20</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -10356,14 +10607,14 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>18</v>
@@ -10373,7 +10624,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="31" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="K44" s="14">
         <v>44773.0</v>
@@ -10383,10 +10634,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -10406,14 +10657,14 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>18</v>
@@ -10423,7 +10674,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="31" t="s">
-        <v>184</v>
+        <v>200</v>
       </c>
       <c r="K45" s="14">
         <v>44774.0</v>
@@ -10433,10 +10684,10 @@
         <v>20</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -10456,14 +10707,14 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>185</v>
+        <v>201</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>186</v>
+        <v>202</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>18</v>
@@ -10473,7 +10724,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="31" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="K46" s="14">
         <v>44775.0</v>
@@ -10483,10 +10734,10 @@
         <v>20</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -10506,14 +10757,14 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="12" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>18</v>
@@ -10523,7 +10774,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="31" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="K47" s="14">
         <v>44776.0</v>
@@ -10533,10 +10784,10 @@
         <v>20</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10556,14 +10807,14 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>192</v>
+        <v>208</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>27</v>
@@ -10573,7 +10824,7 @@
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="31" t="s">
-        <v>193</v>
+        <v>209</v>
       </c>
       <c r="K48" s="14">
         <v>44777.0</v>
@@ -10583,10 +10834,10 @@
         <v>20</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
@@ -10606,14 +10857,14 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>194</v>
+        <v>210</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>195</v>
+        <v>211</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>18</v>
@@ -10623,7 +10874,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="31" t="s">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="K49" s="14">
         <v>44778.0</v>
@@ -10633,10 +10884,10 @@
         <v>20</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10656,14 +10907,14 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>18</v>
@@ -10673,7 +10924,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="31" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="K50" s="14">
         <v>44779.0</v>
@@ -10683,10 +10934,10 @@
         <v>20</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10706,14 +10957,14 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>18</v>
@@ -10723,7 +10974,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="31" t="s">
-        <v>203</v>
+        <v>219</v>
       </c>
       <c r="K51" s="14">
         <v>44780.0</v>
@@ -10733,10 +10984,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
@@ -10756,14 +11007,14 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>204</v>
+        <v>220</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>18</v>
@@ -10773,7 +11024,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="31" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="K52" s="14">
         <v>44781.0</v>
@@ -10783,10 +11034,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
@@ -10806,14 +11057,14 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>18</v>
@@ -10823,7 +11074,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="31" t="s">
-        <v>209</v>
+        <v>225</v>
       </c>
       <c r="K53" s="14">
         <v>44782.0</v>
@@ -10833,10 +11084,10 @@
         <v>20</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
@@ -10856,14 +11107,14 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>18</v>
@@ -10873,7 +11124,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="31" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="K54" s="14">
         <v>44783.0</v>
@@ -10883,10 +11134,10 @@
         <v>20</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -10906,14 +11157,14 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>214</v>
+        <v>230</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>18</v>
@@ -10923,7 +11174,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="31" t="s">
-        <v>215</v>
+        <v>231</v>
       </c>
       <c r="K55" s="14">
         <v>44784.0</v>
@@ -10933,10 +11184,10 @@
         <v>20</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
@@ -10956,14 +11207,14 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="12" t="s">
-        <v>196</v>
+        <v>212</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>18</v>
@@ -10973,7 +11224,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="31" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="K56" s="14">
         <v>44785.0</v>
@@ -10983,10 +11234,10 @@
         <v>20</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
@@ -11006,14 +11257,14 @@
     </row>
     <row r="57">
       <c r="A57" s="34" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>27</v>
@@ -11023,7 +11274,7 @@
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="31" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="K57" s="14">
         <v>44786.0</v>
@@ -11033,10 +11284,10 @@
         <v>20</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
@@ -11056,14 +11307,14 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>18</v>
@@ -11073,7 +11324,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="31" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="K58" s="14">
         <v>44787.0</v>
@@ -11083,10 +11334,10 @@
         <v>20</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
@@ -11106,14 +11357,14 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>18</v>
@@ -11123,7 +11374,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="31" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="K59" s="14">
         <v>44788.0</v>
@@ -11133,10 +11384,10 @@
         <v>20</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
@@ -11156,14 +11407,14 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>18</v>
@@ -11173,7 +11424,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="31" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="K60" s="14">
         <v>44789.0</v>
@@ -11183,10 +11434,10 @@
         <v>20</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
@@ -11206,14 +11457,14 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>232</v>
+        <v>248</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="11" t="s">
-        <v>224</v>
+        <v>240</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>18</v>
@@ -11223,7 +11474,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="31" t="s">
-        <v>234</v>
+        <v>250</v>
       </c>
       <c r="K61" s="14">
         <v>44790.0</v>
@@ -11233,10 +11484,10 @@
         <v>20</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
@@ -11256,14 +11507,14 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>235</v>
+        <v>251</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>236</v>
+        <v>252</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="12" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>27</v>
@@ -11273,7 +11524,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="31" t="s">
-        <v>237</v>
+        <v>253</v>
       </c>
       <c r="K62" s="14">
         <v>44791.0</v>
@@ -11283,10 +11534,10 @@
         <v>20</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -11306,14 +11557,14 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>238</v>
+        <v>254</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>18</v>
@@ -11323,7 +11574,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="31" t="s">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="K63" s="14">
         <v>44792.0</v>
@@ -11333,10 +11584,10 @@
         <v>20</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -11356,14 +11607,14 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>243</v>
+        <v>259</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>18</v>
@@ -11373,7 +11624,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="31" t="s">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="K64" s="14">
         <v>44793.0</v>
@@ -11383,10 +11634,10 @@
         <v>20</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -11406,14 +11657,14 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>18</v>
@@ -11423,7 +11674,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="31" t="s">
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="K65" s="14">
         <v>44794.0</v>
@@ -11433,10 +11684,10 @@
         <v>20</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -11456,14 +11707,14 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>248</v>
+        <v>264</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="12" t="s">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>18</v>
@@ -11473,7 +11724,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="31" t="s">
-        <v>250</v>
+        <v>266</v>
       </c>
       <c r="K66" s="14">
         <v>44795.0</v>
@@ -11483,10 +11734,10 @@
         <v>20</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>

--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="629" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="265">
   <si>
     <t>Term</t>
   </si>
@@ -114,39 +114,39 @@
     <t>The right(s) applicable, provided, or expected that need to be (actively) exercised</t>
   </si>
   <si>
+    <t>Harshvardhan J Pandit, Beatriz Esteves, Georg P Krog, Paul Ryan</t>
+  </si>
+  <si>
+    <t>PassiveRight</t>
+  </si>
+  <si>
+    <t>Passive Right</t>
+  </si>
+  <si>
+    <t>The right(s) applicable, provided, or expected that are always (passively) applicable</t>
+  </si>
+  <si>
+    <t>RightExercise</t>
+  </si>
+  <si>
+    <t>Right Exercise</t>
+  </si>
+  <si>
+    <t>The exercising of an active right</t>
+  </si>
+  <si>
+    <t>RightExerciseService</t>
+  </si>
+  <si>
+    <t>Right Exercise Service</t>
+  </si>
+  <si>
+    <t>A Service providing or implementing the exercising of right(s)</t>
+  </si>
+  <si>
     <t>proposed</t>
   </si>
   <si>
-    <t>Harshvardhan J Pandit, Beatriz Esteves, Georg P Krog, Paul Ryan</t>
-  </si>
-  <si>
-    <t>PassiveRight</t>
-  </si>
-  <si>
-    <t>Passive Right</t>
-  </si>
-  <si>
-    <t>The right(s) applicable, provided, or expected that are always (passively) applicable</t>
-  </si>
-  <si>
-    <t>RightExercise</t>
-  </si>
-  <si>
-    <t>Right Exercise</t>
-  </si>
-  <si>
-    <t>The exercising of an active right</t>
-  </si>
-  <si>
-    <t>RightExerciseService</t>
-  </si>
-  <si>
-    <t>Right Exercise Service</t>
-  </si>
-  <si>
-    <t>A Service providing or implementing the exercising of right(s)</t>
-  </si>
-  <si>
     <t>RightExerciseRecord</t>
   </si>
   <si>
@@ -159,9 +159,6 @@
     <t>dpv:Record</t>
   </si>
   <si>
-    <t>RightExemption</t>
-  </si>
-  <si>
     <t>RightExerciseStatus</t>
   </si>
   <si>
@@ -220,9 +217,6 @@
   </si>
   <si>
     <t>dpv:RightExerciseService</t>
-  </si>
-  <si>
-    <t>hasRightExemption</t>
   </si>
   <si>
     <t>Concepts in DPV this extends</t>
@@ -2450,13 +2444,15 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="14"/>
+      <c r="K5" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L5" s="14"/>
       <c r="M5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N5" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13"/>
@@ -2479,13 +2475,13 @@
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>26</v>
@@ -2498,13 +2494,15 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="K6" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N6" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13"/>
@@ -2539,13 +2537,13 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="D8" s="12" t="s">
         <v>17</v>
@@ -2558,13 +2556,15 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="15"/>
-      <c r="K8" s="14"/>
+      <c r="K8" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L8" s="14"/>
       <c r="M8" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N8" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13"/>
@@ -2587,13 +2587,13 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>42</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>43</v>
       </c>
       <c r="D9" s="12" t="s">
         <v>17</v>
@@ -2606,13 +2606,15 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="15"/>
-      <c r="K9" s="14"/>
+      <c r="K9" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L9" s="14"/>
       <c r="M9" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N9" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N9" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13"/>
@@ -2647,10 +2649,10 @@
       <c r="K10" s="14"/>
       <c r="L10" s="13"/>
       <c r="M10" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N10" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13"/>
@@ -2692,13 +2694,15 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="K11" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N11" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N11" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13"/>
@@ -2720,9 +2724,6 @@
       <c r="AF11" s="13"/>
     </row>
     <row r="12">
-      <c r="A12" s="12" t="s">
-        <v>48</v>
-      </c>
       <c r="B12" s="11"/>
       <c r="K12" s="14"/>
     </row>
@@ -2736,16 +2737,16 @@
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="D14" s="12" t="s">
         <v>51</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>18</v>
@@ -2758,10 +2759,10 @@
       <c r="K14" s="14"/>
       <c r="L14" s="13"/>
       <c r="M14" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N14" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13"/>
@@ -2784,13 +2785,13 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K15" s="14"/>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B16" s="20"/>
       <c r="I16" s="21"/>
@@ -2801,7 +2802,7 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" s="11"/>
       <c r="J17" s="17"/>
@@ -5480,13 +5481,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -5518,13 +5519,13 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>60</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>61</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>17</v>
@@ -5533,7 +5534,7 @@
         <v>26</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -5547,7 +5548,7 @@
         <v>20</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O2" s="19" t="s">
         <v>22</v>
@@ -5568,34 +5569,36 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="C3" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="E3" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="12" t="s">
-        <v>68</v>
-      </c>
       <c r="F3" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
       <c r="J3" s="13"/>
-      <c r="K3" s="14"/>
+      <c r="K3" s="14">
+        <v>44856.0</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
@@ -5611,11 +5614,6 @@
       <c r="Z3" s="13"/>
       <c r="AA3" s="13"/>
       <c r="AB3" s="13"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>69</v>
-      </c>
     </row>
     <row r="6">
       <c r="C6" s="26"/>
@@ -8638,7 +8636,7 @@
     </row>
     <row r="2">
       <c r="A2" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="12"/>
@@ -8646,7 +8644,7 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>24</v>
@@ -8657,14 +8655,14 @@
     </row>
     <row r="5">
       <c r="A5" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E5" s="12" t="s">
         <v>27</v>
@@ -8674,7 +8672,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
       <c r="J5" s="31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K5" s="14">
         <v>44734.0</v>
@@ -8684,10 +8682,10 @@
         <v>20</v>
       </c>
       <c r="N5" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13"/>
@@ -8707,14 +8705,14 @@
     </row>
     <row r="6">
       <c r="A6" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>27</v>
@@ -8724,7 +8722,7 @@
       <c r="H6" s="33"/>
       <c r="I6" s="33"/>
       <c r="J6" s="31" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K6" s="14">
         <v>44735.0</v>
@@ -8734,10 +8732,10 @@
         <v>20</v>
       </c>
       <c r="N6" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
@@ -8757,14 +8755,14 @@
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C7" s="13"/>
       <c r="D7" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E7" s="12" t="s">
         <v>18</v>
@@ -8774,7 +8772,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="K7" s="14">
         <v>44736.0</v>
@@ -8784,10 +8782,10 @@
         <v>20</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="13"/>
@@ -8807,14 +8805,14 @@
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E8" s="12" t="s">
         <v>18</v>
@@ -8824,7 +8822,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
       <c r="J8" s="31" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K8" s="14">
         <v>44737.0</v>
@@ -8834,10 +8832,10 @@
         <v>20</v>
       </c>
       <c r="N8" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13"/>
@@ -8857,14 +8855,14 @@
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E9" s="12" t="s">
         <v>18</v>
@@ -8874,7 +8872,7 @@
       <c r="H9" s="13"/>
       <c r="I9" s="13"/>
       <c r="J9" s="31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K9" s="14">
         <v>44738.0</v>
@@ -8884,10 +8882,10 @@
         <v>20</v>
       </c>
       <c r="N9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="13"/>
@@ -8907,14 +8905,14 @@
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="12" t="s">
         <v>18</v>
@@ -8924,7 +8922,7 @@
       <c r="H10" s="13"/>
       <c r="I10" s="13"/>
       <c r="J10" s="31" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K10" s="14">
         <v>44739.0</v>
@@ -8934,10 +8932,10 @@
         <v>20</v>
       </c>
       <c r="N10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="13"/>
@@ -8957,14 +8955,14 @@
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E11" s="12" t="s">
         <v>18</v>
@@ -8974,7 +8972,7 @@
       <c r="H11" s="13"/>
       <c r="I11" s="13"/>
       <c r="J11" s="31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="K11" s="14">
         <v>44740.0</v>
@@ -8984,10 +8982,10 @@
         <v>20</v>
       </c>
       <c r="N11" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O11" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P11" s="13"/>
       <c r="Q11" s="13"/>
@@ -9007,14 +9005,14 @@
     </row>
     <row r="12">
       <c r="A12" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C12" s="33"/>
       <c r="D12" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>27</v>
@@ -9024,7 +9022,7 @@
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
       <c r="J12" s="31" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12" s="14">
         <v>44741.0</v>
@@ -9034,10 +9032,10 @@
         <v>20</v>
       </c>
       <c r="N12" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O12" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P12" s="33"/>
       <c r="Q12" s="33"/>
@@ -9057,14 +9055,14 @@
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E13" s="12" t="s">
         <v>18</v>
@@ -9074,7 +9072,7 @@
       <c r="H13" s="13"/>
       <c r="I13" s="13"/>
       <c r="J13" s="31" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K13" s="14">
         <v>44742.0</v>
@@ -9084,10 +9082,10 @@
         <v>20</v>
       </c>
       <c r="N13" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O13" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P13" s="13"/>
       <c r="Q13" s="13"/>
@@ -9107,14 +9105,14 @@
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>18</v>
@@ -9124,7 +9122,7 @@
       <c r="H14" s="13"/>
       <c r="I14" s="13"/>
       <c r="J14" s="31" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K14" s="14">
         <v>44743.0</v>
@@ -9134,10 +9132,10 @@
         <v>20</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O14" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P14" s="13"/>
       <c r="Q14" s="13"/>
@@ -9157,14 +9155,14 @@
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E15" s="12" t="s">
         <v>18</v>
@@ -9174,7 +9172,7 @@
       <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="31" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K15" s="14">
         <v>44744.0</v>
@@ -9184,10 +9182,10 @@
         <v>20</v>
       </c>
       <c r="N15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O15" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P15" s="13"/>
       <c r="Q15" s="13"/>
@@ -9207,14 +9205,14 @@
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>18</v>
@@ -9224,7 +9222,7 @@
       <c r="H16" s="13"/>
       <c r="I16" s="13"/>
       <c r="J16" s="31" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K16" s="14">
         <v>44745.0</v>
@@ -9234,10 +9232,10 @@
         <v>20</v>
       </c>
       <c r="N16" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O16" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P16" s="13"/>
       <c r="Q16" s="13"/>
@@ -9257,14 +9255,14 @@
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>18</v>
@@ -9274,7 +9272,7 @@
       <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K17" s="14">
         <v>44746.0</v>
@@ -9284,10 +9282,10 @@
         <v>20</v>
       </c>
       <c r="N17" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O17" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P17" s="13"/>
       <c r="Q17" s="13"/>
@@ -9307,14 +9305,14 @@
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E18" s="12" t="s">
         <v>18</v>
@@ -9324,7 +9322,7 @@
       <c r="H18" s="13"/>
       <c r="I18" s="13"/>
       <c r="J18" s="31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K18" s="14">
         <v>44747.0</v>
@@ -9334,10 +9332,10 @@
         <v>20</v>
       </c>
       <c r="N18" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O18" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P18" s="13"/>
       <c r="Q18" s="13"/>
@@ -9357,14 +9355,14 @@
     </row>
     <row r="19">
       <c r="A19" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E19" s="12" t="s">
         <v>18</v>
@@ -9374,7 +9372,7 @@
       <c r="H19" s="13"/>
       <c r="I19" s="13"/>
       <c r="J19" s="31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="K19" s="14">
         <v>44748.0</v>
@@ -9384,10 +9382,10 @@
         <v>20</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O19" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P19" s="13"/>
       <c r="Q19" s="13"/>
@@ -9407,14 +9405,14 @@
     </row>
     <row r="20">
       <c r="A20" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E20" s="12" t="s">
         <v>18</v>
@@ -9424,7 +9422,7 @@
       <c r="H20" s="13"/>
       <c r="I20" s="13"/>
       <c r="J20" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K20" s="14">
         <v>44749.0</v>
@@ -9434,10 +9432,10 @@
         <v>20</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O20" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
@@ -9457,14 +9455,14 @@
     </row>
     <row r="21">
       <c r="A21" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E21" s="12" t="s">
         <v>18</v>
@@ -9474,7 +9472,7 @@
       <c r="H21" s="13"/>
       <c r="I21" s="13"/>
       <c r="J21" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="K21" s="14">
         <v>44750.0</v>
@@ -9484,10 +9482,10 @@
         <v>20</v>
       </c>
       <c r="N21" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O21" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
@@ -9507,14 +9505,14 @@
     </row>
     <row r="22">
       <c r="A22" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E22" s="12" t="s">
         <v>18</v>
@@ -9524,7 +9522,7 @@
       <c r="H22" s="13"/>
       <c r="I22" s="13"/>
       <c r="J22" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="K22" s="14">
         <v>44751.0</v>
@@ -9534,10 +9532,10 @@
         <v>20</v>
       </c>
       <c r="N22" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O22" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P22" s="13"/>
       <c r="Q22" s="13"/>
@@ -9557,14 +9555,14 @@
     </row>
     <row r="23">
       <c r="A23" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E23" s="12" t="s">
         <v>18</v>
@@ -9574,7 +9572,7 @@
       <c r="H23" s="13"/>
       <c r="I23" s="13"/>
       <c r="J23" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K23" s="14">
         <v>44752.0</v>
@@ -9584,10 +9582,10 @@
         <v>20</v>
       </c>
       <c r="N23" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O23" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P23" s="13"/>
       <c r="Q23" s="13"/>
@@ -9607,14 +9605,14 @@
     </row>
     <row r="24">
       <c r="A24" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E24" s="12" t="s">
         <v>18</v>
@@ -9624,7 +9622,7 @@
       <c r="H24" s="13"/>
       <c r="I24" s="13"/>
       <c r="J24" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="K24" s="14">
         <v>44753.0</v>
@@ -9634,10 +9632,10 @@
         <v>20</v>
       </c>
       <c r="N24" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O24" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P24" s="13"/>
       <c r="Q24" s="13"/>
@@ -9657,14 +9655,14 @@
     </row>
     <row r="25">
       <c r="A25" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E25" s="12" t="s">
         <v>18</v>
@@ -9674,7 +9672,7 @@
       <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="K25" s="14">
         <v>44754.0</v>
@@ -9684,10 +9682,10 @@
         <v>20</v>
       </c>
       <c r="N25" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O25" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P25" s="13"/>
       <c r="Q25" s="13"/>
@@ -9707,14 +9705,14 @@
     </row>
     <row r="26">
       <c r="A26" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="12" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="12" t="s">
         <v>18</v>
@@ -9724,7 +9722,7 @@
       <c r="H26" s="13"/>
       <c r="I26" s="13"/>
       <c r="J26" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K26" s="14">
         <v>44755.0</v>
@@ -9734,10 +9732,10 @@
         <v>20</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O26" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P26" s="13"/>
       <c r="Q26" s="13"/>
@@ -9757,14 +9755,14 @@
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C27" s="33"/>
       <c r="D27" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>27</v>
@@ -9774,7 +9772,7 @@
       <c r="H27" s="33"/>
       <c r="I27" s="33"/>
       <c r="J27" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K27" s="14">
         <v>44756.0</v>
@@ -9784,10 +9782,10 @@
         <v>20</v>
       </c>
       <c r="N27" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O27" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P27" s="33"/>
       <c r="Q27" s="33"/>
@@ -9807,14 +9805,14 @@
     </row>
     <row r="28">
       <c r="A28" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E28" s="12" t="s">
         <v>18</v>
@@ -9824,7 +9822,7 @@
       <c r="H28" s="13"/>
       <c r="I28" s="13"/>
       <c r="J28" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K28" s="14">
         <v>44757.0</v>
@@ -9834,10 +9832,10 @@
         <v>20</v>
       </c>
       <c r="N28" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O28" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P28" s="13"/>
       <c r="Q28" s="13"/>
@@ -9857,14 +9855,14 @@
     </row>
     <row r="29">
       <c r="A29" s="12" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E29" s="12" t="s">
         <v>18</v>
@@ -9874,7 +9872,7 @@
       <c r="H29" s="13"/>
       <c r="I29" s="13"/>
       <c r="J29" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K29" s="14">
         <v>44758.0</v>
@@ -9884,10 +9882,10 @@
         <v>20</v>
       </c>
       <c r="N29" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O29" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P29" s="13"/>
       <c r="Q29" s="13"/>
@@ -9907,14 +9905,14 @@
     </row>
     <row r="30">
       <c r="A30" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E30" s="12" t="s">
         <v>18</v>
@@ -9924,7 +9922,7 @@
       <c r="H30" s="13"/>
       <c r="I30" s="13"/>
       <c r="J30" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K30" s="14">
         <v>44759.0</v>
@@ -9934,10 +9932,10 @@
         <v>20</v>
       </c>
       <c r="N30" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O30" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P30" s="13"/>
       <c r="Q30" s="13"/>
@@ -9957,14 +9955,14 @@
     </row>
     <row r="31">
       <c r="A31" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E31" s="12" t="s">
         <v>18</v>
@@ -9974,7 +9972,7 @@
       <c r="H31" s="13"/>
       <c r="I31" s="13"/>
       <c r="J31" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K31" s="14">
         <v>44760.0</v>
@@ -9984,10 +9982,10 @@
         <v>20</v>
       </c>
       <c r="N31" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O31" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P31" s="13"/>
       <c r="Q31" s="13"/>
@@ -10007,14 +10005,14 @@
     </row>
     <row r="32">
       <c r="A32" s="12" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E32" s="12" t="s">
         <v>18</v>
@@ -10024,7 +10022,7 @@
       <c r="H32" s="13"/>
       <c r="I32" s="13"/>
       <c r="J32" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K32" s="14">
         <v>44761.0</v>
@@ -10034,10 +10032,10 @@
         <v>20</v>
       </c>
       <c r="N32" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O32" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P32" s="13"/>
       <c r="Q32" s="13"/>
@@ -10057,14 +10055,14 @@
     </row>
     <row r="33">
       <c r="A33" s="12" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E33" s="12" t="s">
         <v>18</v>
@@ -10074,7 +10072,7 @@
       <c r="H33" s="13"/>
       <c r="I33" s="13"/>
       <c r="J33" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K33" s="14">
         <v>44762.0</v>
@@ -10084,10 +10082,10 @@
         <v>20</v>
       </c>
       <c r="N33" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O33" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P33" s="13"/>
       <c r="Q33" s="13"/>
@@ -10107,14 +10105,14 @@
     </row>
     <row r="34">
       <c r="A34" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C34" s="13"/>
       <c r="D34" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E34" s="12" t="s">
         <v>18</v>
@@ -10124,7 +10122,7 @@
       <c r="H34" s="13"/>
       <c r="I34" s="13"/>
       <c r="J34" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="K34" s="14">
         <v>44763.0</v>
@@ -10134,10 +10132,10 @@
         <v>20</v>
       </c>
       <c r="N34" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O34" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P34" s="13"/>
       <c r="Q34" s="13"/>
@@ -10157,14 +10155,14 @@
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C35" s="33"/>
       <c r="D35" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E35" s="9" t="s">
         <v>27</v>
@@ -10174,7 +10172,7 @@
       <c r="H35" s="33"/>
       <c r="I35" s="33"/>
       <c r="J35" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="K35" s="14">
         <v>44764.0</v>
@@ -10184,10 +10182,10 @@
         <v>20</v>
       </c>
       <c r="N35" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O35" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P35" s="33"/>
       <c r="Q35" s="33"/>
@@ -10207,14 +10205,14 @@
     </row>
     <row r="36">
       <c r="A36" s="12" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E36" s="12" t="s">
         <v>18</v>
@@ -10224,7 +10222,7 @@
       <c r="H36" s="13"/>
       <c r="I36" s="13"/>
       <c r="J36" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K36" s="14">
         <v>44765.0</v>
@@ -10234,10 +10232,10 @@
         <v>20</v>
       </c>
       <c r="N36" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O36" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
@@ -10257,14 +10255,14 @@
     </row>
     <row r="37">
       <c r="A37" s="12" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E37" s="12" t="s">
         <v>18</v>
@@ -10274,7 +10272,7 @@
       <c r="H37" s="13"/>
       <c r="I37" s="13"/>
       <c r="J37" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K37" s="14">
         <v>44766.0</v>
@@ -10284,10 +10282,10 @@
         <v>20</v>
       </c>
       <c r="N37" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O37" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P37" s="13"/>
       <c r="Q37" s="13"/>
@@ -10307,14 +10305,14 @@
     </row>
     <row r="38">
       <c r="A38" s="12" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>18</v>
@@ -10324,7 +10322,7 @@
       <c r="H38" s="13"/>
       <c r="I38" s="13"/>
       <c r="J38" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K38" s="14">
         <v>44767.0</v>
@@ -10334,10 +10332,10 @@
         <v>20</v>
       </c>
       <c r="N38" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O38" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
@@ -10357,14 +10355,14 @@
     </row>
     <row r="39">
       <c r="A39" s="12" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>18</v>
@@ -10374,7 +10372,7 @@
       <c r="H39" s="13"/>
       <c r="I39" s="13"/>
       <c r="J39" s="31" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K39" s="14">
         <v>44768.0</v>
@@ -10384,10 +10382,10 @@
         <v>20</v>
       </c>
       <c r="N39" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O39" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P39" s="13"/>
       <c r="Q39" s="13"/>
@@ -10407,14 +10405,14 @@
     </row>
     <row r="40">
       <c r="A40" s="12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>18</v>
@@ -10424,7 +10422,7 @@
       <c r="H40" s="13"/>
       <c r="I40" s="13"/>
       <c r="J40" s="31" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K40" s="14">
         <v>44769.0</v>
@@ -10434,10 +10432,10 @@
         <v>20</v>
       </c>
       <c r="N40" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O40" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P40" s="13"/>
       <c r="Q40" s="13"/>
@@ -10457,14 +10455,14 @@
     </row>
     <row r="41">
       <c r="A41" s="12" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E41" s="12" t="s">
         <v>18</v>
@@ -10474,7 +10472,7 @@
       <c r="H41" s="13"/>
       <c r="I41" s="13"/>
       <c r="J41" s="31" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K41" s="14">
         <v>44770.0</v>
@@ -10484,10 +10482,10 @@
         <v>20</v>
       </c>
       <c r="N41" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O41" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P41" s="13"/>
       <c r="Q41" s="13"/>
@@ -10507,14 +10505,14 @@
     </row>
     <row r="42">
       <c r="A42" s="12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E42" s="12" t="s">
         <v>18</v>
@@ -10524,7 +10522,7 @@
       <c r="H42" s="13"/>
       <c r="I42" s="13"/>
       <c r="J42" s="31" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K42" s="14">
         <v>44771.0</v>
@@ -10534,10 +10532,10 @@
         <v>20</v>
       </c>
       <c r="N42" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O42" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P42" s="13"/>
       <c r="Q42" s="13"/>
@@ -10557,14 +10555,14 @@
     </row>
     <row r="43">
       <c r="A43" s="12" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E43" s="12" t="s">
         <v>18</v>
@@ -10574,7 +10572,7 @@
       <c r="H43" s="13"/>
       <c r="I43" s="13"/>
       <c r="J43" s="31" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K43" s="14">
         <v>44772.0</v>
@@ -10584,10 +10582,10 @@
         <v>20</v>
       </c>
       <c r="N43" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O43" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P43" s="13"/>
       <c r="Q43" s="13"/>
@@ -10607,14 +10605,14 @@
     </row>
     <row r="44">
       <c r="A44" s="12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C44" s="13"/>
       <c r="D44" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>18</v>
@@ -10624,7 +10622,7 @@
       <c r="H44" s="13"/>
       <c r="I44" s="13"/>
       <c r="J44" s="31" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K44" s="14">
         <v>44773.0</v>
@@ -10634,10 +10632,10 @@
         <v>20</v>
       </c>
       <c r="N44" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O44" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P44" s="13"/>
       <c r="Q44" s="13"/>
@@ -10657,14 +10655,14 @@
     </row>
     <row r="45">
       <c r="A45" s="12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>18</v>
@@ -10674,7 +10672,7 @@
       <c r="H45" s="13"/>
       <c r="I45" s="13"/>
       <c r="J45" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K45" s="14">
         <v>44774.0</v>
@@ -10684,10 +10682,10 @@
         <v>20</v>
       </c>
       <c r="N45" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O45" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P45" s="13"/>
       <c r="Q45" s="13"/>
@@ -10707,14 +10705,14 @@
     </row>
     <row r="46">
       <c r="A46" s="12" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>18</v>
@@ -10724,7 +10722,7 @@
       <c r="H46" s="13"/>
       <c r="I46" s="13"/>
       <c r="J46" s="31" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K46" s="14">
         <v>44775.0</v>
@@ -10734,10 +10732,10 @@
         <v>20</v>
       </c>
       <c r="N46" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O46" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
@@ -10757,14 +10755,14 @@
     </row>
     <row r="47">
       <c r="A47" s="12" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E47" s="12" t="s">
         <v>18</v>
@@ -10774,7 +10772,7 @@
       <c r="H47" s="13"/>
       <c r="I47" s="13"/>
       <c r="J47" s="31" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K47" s="14">
         <v>44776.0</v>
@@ -10784,10 +10782,10 @@
         <v>20</v>
       </c>
       <c r="N47" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O47" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P47" s="13"/>
       <c r="Q47" s="13"/>
@@ -10807,14 +10805,14 @@
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C48" s="33"/>
       <c r="D48" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E48" s="9" t="s">
         <v>27</v>
@@ -10824,7 +10822,7 @@
       <c r="H48" s="33"/>
       <c r="I48" s="33"/>
       <c r="J48" s="31" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K48" s="14">
         <v>44777.0</v>
@@ -10834,10 +10832,10 @@
         <v>20</v>
       </c>
       <c r="N48" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O48" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P48" s="33"/>
       <c r="Q48" s="33"/>
@@ -10857,14 +10855,14 @@
     </row>
     <row r="49">
       <c r="A49" s="12" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E49" s="12" t="s">
         <v>18</v>
@@ -10874,7 +10872,7 @@
       <c r="H49" s="13"/>
       <c r="I49" s="13"/>
       <c r="J49" s="31" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K49" s="14">
         <v>44778.0</v>
@@ -10884,10 +10882,10 @@
         <v>20</v>
       </c>
       <c r="N49" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O49" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P49" s="13"/>
       <c r="Q49" s="13"/>
@@ -10907,14 +10905,14 @@
     </row>
     <row r="50">
       <c r="A50" s="12" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E50" s="12" t="s">
         <v>18</v>
@@ -10924,7 +10922,7 @@
       <c r="H50" s="13"/>
       <c r="I50" s="13"/>
       <c r="J50" s="31" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K50" s="14">
         <v>44779.0</v>
@@ -10934,10 +10932,10 @@
         <v>20</v>
       </c>
       <c r="N50" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O50" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
@@ -10957,14 +10955,14 @@
     </row>
     <row r="51">
       <c r="A51" s="12" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>18</v>
@@ -10974,7 +10972,7 @@
       <c r="H51" s="13"/>
       <c r="I51" s="13"/>
       <c r="J51" s="31" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K51" s="14">
         <v>44780.0</v>
@@ -10984,10 +10982,10 @@
         <v>20</v>
       </c>
       <c r="N51" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O51" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
@@ -11007,14 +11005,14 @@
     </row>
     <row r="52">
       <c r="A52" s="12" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>18</v>
@@ -11024,7 +11022,7 @@
       <c r="H52" s="13"/>
       <c r="I52" s="13"/>
       <c r="J52" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K52" s="14">
         <v>44781.0</v>
@@ -11034,10 +11032,10 @@
         <v>20</v>
       </c>
       <c r="N52" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O52" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
@@ -11057,14 +11055,14 @@
     </row>
     <row r="53">
       <c r="A53" s="12" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>18</v>
@@ -11074,7 +11072,7 @@
       <c r="H53" s="13"/>
       <c r="I53" s="13"/>
       <c r="J53" s="31" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K53" s="14">
         <v>44782.0</v>
@@ -11084,10 +11082,10 @@
         <v>20</v>
       </c>
       <c r="N53" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O53" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
@@ -11107,14 +11105,14 @@
     </row>
     <row r="54">
       <c r="A54" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>18</v>
@@ -11124,7 +11122,7 @@
       <c r="H54" s="13"/>
       <c r="I54" s="13"/>
       <c r="J54" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K54" s="14">
         <v>44783.0</v>
@@ -11134,10 +11132,10 @@
         <v>20</v>
       </c>
       <c r="N54" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O54" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
@@ -11157,14 +11155,14 @@
     </row>
     <row r="55">
       <c r="A55" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>18</v>
@@ -11174,7 +11172,7 @@
       <c r="H55" s="13"/>
       <c r="I55" s="13"/>
       <c r="J55" s="31" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K55" s="14">
         <v>44784.0</v>
@@ -11184,10 +11182,10 @@
         <v>20</v>
       </c>
       <c r="N55" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O55" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
@@ -11207,14 +11205,14 @@
     </row>
     <row r="56">
       <c r="A56" s="12" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C56" s="13"/>
       <c r="D56" s="12" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>18</v>
@@ -11224,7 +11222,7 @@
       <c r="H56" s="13"/>
       <c r="I56" s="13"/>
       <c r="J56" s="31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K56" s="14">
         <v>44785.0</v>
@@ -11234,10 +11232,10 @@
         <v>20</v>
       </c>
       <c r="N56" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O56" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
@@ -11257,14 +11255,14 @@
     </row>
     <row r="57">
       <c r="A57" s="34" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B57" s="34" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C57" s="33"/>
       <c r="D57" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>27</v>
@@ -11274,7 +11272,7 @@
       <c r="H57" s="33"/>
       <c r="I57" s="33"/>
       <c r="J57" s="31" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K57" s="14">
         <v>44786.0</v>
@@ -11284,10 +11282,10 @@
         <v>20</v>
       </c>
       <c r="N57" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O57" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P57" s="33"/>
       <c r="Q57" s="33"/>
@@ -11307,14 +11305,14 @@
     </row>
     <row r="58">
       <c r="A58" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>18</v>
@@ -11324,7 +11322,7 @@
       <c r="H58" s="13"/>
       <c r="I58" s="13"/>
       <c r="J58" s="31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K58" s="14">
         <v>44787.0</v>
@@ -11334,10 +11332,10 @@
         <v>20</v>
       </c>
       <c r="N58" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O58" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
@@ -11357,14 +11355,14 @@
     </row>
     <row r="59">
       <c r="A59" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B59" s="11" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E59" s="12" t="s">
         <v>18</v>
@@ -11374,7 +11372,7 @@
       <c r="H59" s="13"/>
       <c r="I59" s="13"/>
       <c r="J59" s="31" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K59" s="14">
         <v>44788.0</v>
@@ -11384,10 +11382,10 @@
         <v>20</v>
       </c>
       <c r="N59" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O59" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P59" s="13"/>
       <c r="Q59" s="13"/>
@@ -11407,14 +11405,14 @@
     </row>
     <row r="60">
       <c r="A60" s="11" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E60" s="12" t="s">
         <v>18</v>
@@ -11424,7 +11422,7 @@
       <c r="H60" s="13"/>
       <c r="I60" s="13"/>
       <c r="J60" s="31" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K60" s="14">
         <v>44789.0</v>
@@ -11434,10 +11432,10 @@
         <v>20</v>
       </c>
       <c r="N60" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O60" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
@@ -11457,14 +11455,14 @@
     </row>
     <row r="61">
       <c r="A61" s="12" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="11" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>18</v>
@@ -11474,7 +11472,7 @@
       <c r="H61" s="13"/>
       <c r="I61" s="13"/>
       <c r="J61" s="31" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K61" s="14">
         <v>44790.0</v>
@@ -11484,10 +11482,10 @@
         <v>20</v>
       </c>
       <c r="N61" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O61" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P61" s="13"/>
       <c r="Q61" s="13"/>
@@ -11507,14 +11505,14 @@
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="12" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>27</v>
@@ -11524,7 +11522,7 @@
       <c r="H62" s="13"/>
       <c r="I62" s="13"/>
       <c r="J62" s="31" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K62" s="14">
         <v>44791.0</v>
@@ -11534,10 +11532,10 @@
         <v>20</v>
       </c>
       <c r="N62" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O62" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -11557,14 +11555,14 @@
     </row>
     <row r="63">
       <c r="A63" s="12" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>18</v>
@@ -11574,7 +11572,7 @@
       <c r="H63" s="13"/>
       <c r="I63" s="13"/>
       <c r="J63" s="31" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K63" s="14">
         <v>44792.0</v>
@@ -11584,10 +11582,10 @@
         <v>20</v>
       </c>
       <c r="N63" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O63" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P63" s="13"/>
       <c r="Q63" s="13"/>
@@ -11607,14 +11605,14 @@
     </row>
     <row r="64">
       <c r="A64" s="12" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E64" s="12" t="s">
         <v>18</v>
@@ -11624,7 +11622,7 @@
       <c r="H64" s="13"/>
       <c r="I64" s="13"/>
       <c r="J64" s="31" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K64" s="14">
         <v>44793.0</v>
@@ -11634,10 +11632,10 @@
         <v>20</v>
       </c>
       <c r="N64" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O64" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P64" s="13"/>
       <c r="Q64" s="13"/>
@@ -11657,14 +11655,14 @@
     </row>
     <row r="65">
       <c r="A65" s="12" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>18</v>
@@ -11674,7 +11672,7 @@
       <c r="H65" s="13"/>
       <c r="I65" s="13"/>
       <c r="J65" s="31" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K65" s="14">
         <v>44794.0</v>
@@ -11684,10 +11682,10 @@
         <v>20</v>
       </c>
       <c r="N65" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O65" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P65" s="13"/>
       <c r="Q65" s="13"/>
@@ -11707,14 +11705,14 @@
     </row>
     <row r="66">
       <c r="A66" s="12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="12" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E66" s="12" t="s">
         <v>18</v>
@@ -11724,7 +11722,7 @@
       <c r="H66" s="13"/>
       <c r="I66" s="13"/>
       <c r="J66" s="31" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K66" s="14">
         <v>44795.0</v>
@@ -11734,10 +11732,10 @@
         <v>20</v>
       </c>
       <c r="N66" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="O66" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>

--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -138,10 +138,10 @@
     <t>Exercising Rights</t>
   </si>
   <si>
-    <t>RightExercise</t>
-  </si>
-  <si>
-    <t>Right Exercise</t>
+    <t>RightExerciseNotice</t>
+  </si>
+  <si>
+    <t>Right Exercise Notice</t>
   </si>
   <si>
     <t>Information associated with exercising of an active right</t>
@@ -255,7 +255,7 @@
     <t>dpv:ActiveRight</t>
   </si>
   <si>
-    <t>dpv:RightExerciseService</t>
+    <t>dpv:RightExerciseNotice</t>
   </si>
   <si>
     <t>dpv:hasStatus</t>

--- a/documentation-generator/vocab_csv/rights.xlsx
+++ b/documentation-generator/vocab_csv/rights.xlsx
@@ -754,10 +754,10 @@
     </r>
   </si>
   <si>
-    <t>A15-FreedomToChooseOccuprationEngageWork</t>
-  </si>
-  <si>
-    <t>A15 Freedom To Choose Occupration Engage Work</t>
+    <t>A15-FreedomToChooseOccupationEngageWork</t>
+  </si>
+  <si>
+    <t>A15 Freedom To Choose Occupation Engage Work</t>
   </si>
   <si>
     <r>
